--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/110.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/110.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07335702461727461</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.641769100463363</v>
+        <v>-1.577277316239834</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1296809673705255</v>
+        <v>0.04949220612163794</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06139114614242319</v>
+        <v>-0.09683381354923186</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05945926166012106</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.705897332712254</v>
+        <v>-1.682863614030079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.066570388640997</v>
+        <v>0.0183829614486463</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02100037575552495</v>
+        <v>-0.08484535867478053</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.063031474167</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.880392060201026</v>
+        <v>-1.774169181443145</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08153880166899298</v>
+        <v>0.02943260540064333</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1562095892622159</v>
+        <v>-0.1363164340235849</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.09354898059086116</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.036521572778302</v>
+        <v>-1.955750982365187</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03222713744664258</v>
+        <v>0.08517578146344654</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1128739018759548</v>
+        <v>-0.156799448690943</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1471095878145694</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.126843067778096</v>
+        <v>-2.046192931332481</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02321864072573591</v>
+        <v>0.1602981758368809</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09659290561423192</v>
+        <v>-0.1597808668925786</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2038620366504559</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.924102249922605</v>
+        <v>-1.950234920677734</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1425133300415221</v>
+        <v>0.2717538669525782</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1196266242964076</v>
+        <v>-0.1857580425260262</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2375565026849938</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.628564425529184</v>
+        <v>-1.727235935560885</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1221485792695275</v>
+        <v>0.3555752278516466</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1337263087103129</v>
+        <v>-0.1744996116970292</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2265918287875502</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.222659375871839</v>
+        <v>-1.320235849835358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2756784762209408</v>
+        <v>0.4018806530548161</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1082324089949561</v>
+        <v>-0.1701238475685758</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1568607229247577</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7845675660504108</v>
+        <v>-0.8406859744725775</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2589711459166726</v>
+        <v>0.4036794323028156</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09307856985941468</v>
+        <v>-0.1245382260742244</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02165693609588391</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2456930166578283</v>
+        <v>-0.24273933936992</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1636139450513346</v>
+        <v>0.312952043933749</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06536539704587667</v>
+        <v>-0.09049282469041538</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1753411744736265</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5491615441771401</v>
+        <v>0.4465406040595313</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1421843673009469</v>
+        <v>0.1227632595158001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07974148246908437</v>
+        <v>0.004020468378377426</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.419387301480058</v>
       </c>
       <c r="E13" t="n">
-        <v>1.034363265699828</v>
+        <v>1.129895672336075</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4126699565265107</v>
+        <v>-0.1588508162586698</v>
       </c>
       <c r="G13" t="n">
-        <v>0.258181259899491</v>
+        <v>0.1093570979450764</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.691842613906121</v>
       </c>
       <c r="E14" t="n">
-        <v>1.767903106957086</v>
+        <v>1.886913086895144</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9467219670748218</v>
+        <v>-0.5322420549795694</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2460628607449488</v>
+        <v>0.2336568321164976</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9758447292482303</v>
       </c>
       <c r="E15" t="n">
-        <v>2.58224054951714</v>
+        <v>2.640445366661215</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.336632189896263</v>
+        <v>-0.9121655488591948</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4868627521861569</v>
+        <v>0.3726212893130057</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.258006395320814</v>
       </c>
       <c r="E16" t="n">
-        <v>3.294562971917312</v>
+        <v>3.262125083481593</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.804919254285773</v>
+        <v>-1.320555600367267</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6774355292520148</v>
+        <v>0.5178741736370577</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.530498834948381</v>
       </c>
       <c r="E17" t="n">
-        <v>4.010436231274574</v>
+        <v>3.882346212259154</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.046947046171435</v>
+        <v>-1.688477498939623</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8263487541399748</v>
+        <v>0.6587001921494744</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.785610920387664</v>
       </c>
       <c r="E18" t="n">
-        <v>4.564048506096789</v>
+        <v>4.410724475926195</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.548392532729528</v>
+        <v>-2.018616273015443</v>
       </c>
       <c r="G18" t="n">
-        <v>1.038626606125281</v>
+        <v>0.8513111963502408</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.015827166115814</v>
       </c>
       <c r="E19" t="n">
-        <v>5.018881227328576</v>
+        <v>4.845097543260078</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.830505944951089</v>
+        <v>-2.394894026812069</v>
       </c>
       <c r="G19" t="n">
-        <v>1.16767879683261</v>
+        <v>1.020592092106377</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.220960949144922</v>
       </c>
       <c r="E20" t="n">
-        <v>5.265424947959419</v>
+        <v>5.252594045336513</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.119127521537875</v>
+        <v>-2.73381426013066</v>
       </c>
       <c r="G20" t="n">
-        <v>1.378036685578372</v>
+        <v>1.185092790412879</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.400582588570763</v>
       </c>
       <c r="E21" t="n">
-        <v>5.682170854691762</v>
+        <v>5.574769717124518</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.465461149038055</v>
+        <v>-3.016250342980312</v>
       </c>
       <c r="G21" t="n">
-        <v>1.560320769632141</v>
+        <v>1.294251825881577</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.552127355278337</v>
       </c>
       <c r="E22" t="n">
-        <v>6.024917144032579</v>
+        <v>5.841580365305265</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.683192280642905</v>
+        <v>-3.326834692974592</v>
       </c>
       <c r="G22" t="n">
-        <v>1.60654443214222</v>
+        <v>1.40600682685591</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.675245860310915</v>
       </c>
       <c r="E23" t="n">
-        <v>6.04562938625021</v>
+        <v>5.962901601371231</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.892771233732167</v>
+        <v>-3.556125755339212</v>
       </c>
       <c r="G23" t="n">
-        <v>1.724685683466188</v>
+        <v>1.514272312892972</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.770176645449183</v>
       </c>
       <c r="E24" t="n">
-        <v>6.193834487814079</v>
+        <v>6.045274594564119</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.096080740319067</v>
+        <v>-3.751347325526523</v>
       </c>
       <c r="G24" t="n">
-        <v>1.84665664093261</v>
+        <v>1.625530897516396</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.835389552671566</v>
       </c>
       <c r="E25" t="n">
-        <v>6.119129667194644</v>
+        <v>6.067203056841477</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.289591134143834</v>
+        <v>-3.845420414095907</v>
       </c>
       <c r="G25" t="n">
-        <v>1.792202687334079</v>
+        <v>1.650005683664299</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.868819441741551</v>
       </c>
       <c r="E26" t="n">
-        <v>6.006900150590766</v>
+        <v>5.978675960945409</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.274600820394474</v>
+        <v>-3.938811660206837</v>
       </c>
       <c r="G26" t="n">
-        <v>1.731270500356186</v>
+        <v>1.663787077594386</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.872626349718233</v>
       </c>
       <c r="E27" t="n">
-        <v>5.848312647052444</v>
+        <v>5.838912857443174</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.257949701941706</v>
+        <v>-3.985128765794733</v>
       </c>
       <c r="G27" t="n">
-        <v>1.769531060578449</v>
+        <v>1.673102184414384</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.847131037919036</v>
       </c>
       <c r="E28" t="n">
-        <v>5.851437149966989</v>
+        <v>5.733495925231475</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.214042405727853</v>
+        <v>-3.949368537928152</v>
       </c>
       <c r="G28" t="n">
-        <v>1.736192322470639</v>
+        <v>1.639769286498938</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.790625071334897</v>
       </c>
       <c r="E29" t="n">
-        <v>5.603208533839237</v>
+        <v>5.479824249820816</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.164443112031594</v>
+        <v>-3.933102142147338</v>
       </c>
       <c r="G29" t="n">
-        <v>1.66417837048275</v>
+        <v>1.587711271817589</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.705705737808921</v>
       </c>
       <c r="E30" t="n">
-        <v>5.527090386667804</v>
+        <v>5.336047474116673</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.199570409050766</v>
+        <v>-3.865693181838175</v>
       </c>
       <c r="G30" t="n">
-        <v>1.702292925895921</v>
+        <v>1.538041895812966</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.594223641659358</v>
       </c>
       <c r="E31" t="n">
-        <v>5.253598558423059</v>
+        <v>5.068268814051654</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.190767779110678</v>
+        <v>-3.74412081750057</v>
       </c>
       <c r="G31" t="n">
-        <v>1.499725853763249</v>
+        <v>1.412388697061272</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.457621133002196</v>
       </c>
       <c r="E32" t="n">
-        <v>4.893906950939155</v>
+        <v>4.797942370067999</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.019784467280542</v>
+        <v>-3.572514795159662</v>
       </c>
       <c r="G32" t="n">
-        <v>1.439398126694992</v>
+        <v>1.297666878366212</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.300966228879692</v>
       </c>
       <c r="E33" t="n">
-        <v>4.630870527073408</v>
+        <v>4.493809972587445</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.938443728087928</v>
+        <v>-3.37929276083285</v>
       </c>
       <c r="G33" t="n">
-        <v>1.491939417294432</v>
+        <v>1.22307886159405</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.131042066942057</v>
       </c>
       <c r="E34" t="n">
-        <v>4.347916127151484</v>
+        <v>4.138026913842904</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.838103383088318</v>
+        <v>-3.213964215258804</v>
       </c>
       <c r="G34" t="n">
-        <v>1.386544385804097</v>
+        <v>1.123297715013259</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.952851206214358</v>
       </c>
       <c r="E35" t="n">
-        <v>3.971543470228948</v>
+        <v>3.791563342062633</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.779082399061425</v>
+        <v>-3.052976392659029</v>
       </c>
       <c r="G35" t="n">
-        <v>1.367496598410102</v>
+        <v>1.035332737632191</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.771057390617819</v>
       </c>
       <c r="E36" t="n">
-        <v>3.725976521770924</v>
+        <v>3.452226265014088</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.614436425969878</v>
+        <v>-2.93250490458197</v>
       </c>
       <c r="G36" t="n">
-        <v>1.218456349338233</v>
+        <v>0.9116725045245883</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.591604576777822</v>
       </c>
       <c r="E37" t="n">
-        <v>3.367562456366565</v>
+        <v>3.082258839066369</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.535536157161217</v>
+        <v>-2.800559628582506</v>
       </c>
       <c r="G37" t="n">
-        <v>1.134138572088256</v>
+        <v>0.8133689266117965</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.416205087107883</v>
       </c>
       <c r="E38" t="n">
-        <v>3.143731243837898</v>
+        <v>2.734176073953281</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.362644562476264</v>
+        <v>-2.669546593289086</v>
       </c>
       <c r="G38" t="n">
-        <v>1.01237056130647</v>
+        <v>0.7258711646198199</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.244716746874488</v>
       </c>
       <c r="E39" t="n">
-        <v>2.735865349594462</v>
+        <v>2.402375765150006</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.2269732437488</v>
+        <v>-2.56014810993348</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9278819584298567</v>
+        <v>0.6526599731973851</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.080430664644725</v>
       </c>
       <c r="E40" t="n">
-        <v>2.392475179045554</v>
+        <v>2.146740325057075</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.101633225312607</v>
+        <v>-2.439686842193057</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8304733899967919</v>
+        <v>0.5519181149727758</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.924162635630425</v>
       </c>
       <c r="E41" t="n">
-        <v>2.102963703147359</v>
+        <v>1.900425831976505</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.981747216520003</v>
+        <v>-2.349439079621854</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7347146759064539</v>
+        <v>0.4826651139247943</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7761480665773633</v>
       </c>
       <c r="E42" t="n">
-        <v>1.717556268638281</v>
+        <v>1.636167347858666</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.803887808205732</v>
+        <v>-2.260176119487969</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6832830218561041</v>
+        <v>0.4196114770708113</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6387799124994701</v>
       </c>
       <c r="E43" t="n">
-        <v>1.602459217583857</v>
+        <v>1.437102931096083</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.774041505131377</v>
+        <v>-2.195651484182396</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5724069698324975</v>
+        <v>0.3406608366030143</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.512928637310499</v>
       </c>
       <c r="E44" t="n">
-        <v>1.358654547171559</v>
+        <v>1.238061875102955</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.702731296323305</v>
+        <v>-2.153363381301361</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4817540439160674</v>
+        <v>0.3018994798855701</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3976124539519306</v>
       </c>
       <c r="E45" t="n">
-        <v>1.172308609328882</v>
+        <v>1.074806597817999</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.579025801724883</v>
+        <v>-2.061839536698704</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4170447125269938</v>
+        <v>0.2160530322844114</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2920075572430325</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9096517979667706</v>
+        <v>0.8924246905421389</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.56292804149857</v>
+        <v>-2.017648991155216</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4553286335187108</v>
+        <v>0.1995982902998704</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1949772845597582</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5210059767920567</v>
+        <v>0.6527650966599305</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.52936445598476</v>
+        <v>-1.938889616987328</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3436656155741044</v>
+        <v>0.1557209250718821</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1048158167567715</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4177878770052663</v>
+        <v>0.536594910258689</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.446156315283874</v>
+        <v>-1.871106884366892</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2751017572250319</v>
+        <v>0.1121122086926211</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.01988541111388721</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1855088262226014</v>
+        <v>0.3849236545270024</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.391743973055934</v>
+        <v>-1.78020210015478</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2058166351190505</v>
+        <v>0.06956348722735983</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.06028917888034064</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1039213389026233</v>
+        <v>0.2908220950198458</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.253033564227244</v>
+        <v>-1.723013476481977</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1099907588165308</v>
+        <v>0.02552113656509893</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1362930880262853</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01482920439537452</v>
+        <v>0.1704323696358782</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.213361137501073</v>
+        <v>-1.675437809439717</v>
       </c>
       <c r="G51" t="n">
-        <v>0.126171011759981</v>
+        <v>-0.02089963243725225</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2081469121606971</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.05905798929315109</v>
+        <v>0.09626484671389811</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.097180000739149</v>
+        <v>-1.613860281205643</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0788406327969937</v>
+        <v>-0.03903634982252011</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2749889203257845</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2315582910897411</v>
+        <v>0.01483066444346543</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.026961907903077</v>
+        <v>-1.559733378379475</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05573975190263627</v>
+        <v>-0.0906315292590517</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3366376947891322</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.09854937005604958</v>
+        <v>-0.02580685407079638</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.050348958223253</v>
+        <v>-1.540288457904753</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.05357988885606165</v>
+        <v>-0.1248944778084061</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3927119010008649</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3485621649508915</v>
+        <v>-0.1405374330544019</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.059307083285023</v>
+        <v>-1.540682670889299</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09224050225523309</v>
+        <v>-0.1510220383952173</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4442935888765024</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4040498325977857</v>
+        <v>-0.197162478164114</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.934788341899966</v>
+        <v>-1.505796281805126</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09441743395877795</v>
+        <v>-0.1970383740763868</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4927608976793421</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.399935417077605</v>
+        <v>-0.2720176837369121</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.897796563468703</v>
+        <v>-1.515476400647851</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.117475973458499</v>
+        <v>-0.1881291606256619</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5389578489972233</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4249285202977801</v>
+        <v>-0.305712673578903</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.895166286832931</v>
+        <v>-1.5354469384353</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1706319443042121</v>
+        <v>-0.2667907115714589</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5845848019700215</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5392940872586585</v>
+        <v>-0.3710147844928855</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.826281217903858</v>
+        <v>-1.553449331396204</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2036932732747486</v>
+        <v>-0.3084473436531751</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6306559461763644</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4562304913187717</v>
+        <v>-0.412983866866056</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.814141648051998</v>
+        <v>-1.580588705310015</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1864909866676623</v>
+        <v>-0.3276104748463517</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6772604717609115</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6007080901065511</v>
+        <v>-0.4894641059640355</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.861110665112485</v>
+        <v>-1.592362533115103</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3163681045463547</v>
+        <v>-0.3826411474407915</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7242629616861368</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.7298449636031528</v>
+        <v>-0.6206567271726366</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.784961856931142</v>
+        <v>-1.635442712085455</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3260263226677158</v>
+        <v>-0.4080649648477847</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7720114092616448</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7656964444754158</v>
+        <v>-0.7183310243582468</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.932831147434102</v>
+        <v>-1.701420825265528</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4059449750197852</v>
+        <v>-0.4308563155468694</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8195662759946812</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8382812752668509</v>
+        <v>-0.8407618969733048</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.938398310804737</v>
+        <v>-1.713934897452707</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4688686675936774</v>
+        <v>-0.4719114078151311</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8650731990280591</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9473921291485489</v>
+        <v>-0.8999186654726525</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.871297420642755</v>
+        <v>-1.720489053332796</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5353972189040231</v>
+        <v>-0.4922892990199438</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.9079779622393215</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.077167043660878</v>
+        <v>-0.9640468977215444</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.037274957593211</v>
+        <v>-1.81911019170536</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5312112610273879</v>
+        <v>-0.5060750730943038</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.9467917660766498</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.103767659829143</v>
+        <v>-1.01301399059444</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.019113419390397</v>
+        <v>-1.866347127590529</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5462701970370203</v>
+        <v>-0.5136016210029382</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9786795085095946</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.080472592538695</v>
+        <v>-1.086089397544421</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.1109832953906</v>
+        <v>-1.922453125603923</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5981851270054609</v>
+        <v>-0.5465388458857474</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.002621829274643</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.063927327572518</v>
+        <v>-1.085422155566875</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.140069643433638</v>
+        <v>-1.989356909273633</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5589346541775623</v>
+        <v>-0.5581330877756534</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.01709281576414</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.141999019089588</v>
+        <v>-1.114018657475413</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.259697223714151</v>
+        <v>-2.0455877413988</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6096450444710032</v>
+        <v>-0.5626942780116522</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.020826558014394</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.182452571544395</v>
+        <v>-1.079684166569604</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.412571559072747</v>
+        <v>-2.096184247941149</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7554308463482369</v>
+        <v>-0.6089924029743671</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.013324389353273</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.205569512967752</v>
+        <v>-1.052809061360248</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.557355767959617</v>
+        <v>-2.144168728448864</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6521003228584464</v>
+        <v>-0.6025711114705506</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9948154037440465</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.106756378271233</v>
+        <v>-0.9700301747980883</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.575286618564066</v>
+        <v>-2.141878643018273</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7404711936087863</v>
+        <v>-0.6398855605299042</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9657472085791226</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.15117688138904</v>
+        <v>-0.9029073839147427</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.613371242991374</v>
+        <v>-2.145971887841136</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.8034284672887694</v>
+        <v>-0.633237961571997</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9266470244850472</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.9382989496383696</v>
+        <v>-0.7407194017842408</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.644483407760548</v>
+        <v>-2.11655775900169</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.8410553666395775</v>
+        <v>-0.6142339756207292</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8795787038938935</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9181137847815568</v>
+        <v>-0.597960279599461</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.527362730052125</v>
+        <v>-2.067348298145703</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.8150095687458572</v>
+        <v>-0.5891109281204633</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.825728650954632</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7410026511138771</v>
+        <v>-0.4292531827430517</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.587056066224881</v>
+        <v>-2.065624711374385</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7030764419044327</v>
+        <v>-0.5644171347589245</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7656603807583904</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5187307699463004</v>
+        <v>-0.2752575304506385</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.505307243590858</v>
+        <v>-2.029580504154122</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7286214433029713</v>
+        <v>-0.5708997482825591</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7011674946739218</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3294851765950785</v>
+        <v>-0.07716696576469169</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.487301930533772</v>
+        <v>-2.000755504719357</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6518959161257192</v>
+        <v>-0.502489194983032</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6332095552821105</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1364682790250394</v>
+        <v>0.1163317476753473</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.419669582866699</v>
+        <v>-1.965506293684594</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5961702606400069</v>
+        <v>-0.4735510418212216</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.562002658967182</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.01453236271279941</v>
+        <v>0.2970754809932079</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.308952676085001</v>
+        <v>-1.913748318885926</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5132468293168473</v>
+        <v>-0.3832602078313367</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4887692103337825</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2427938130694042</v>
+        <v>0.5141714916785132</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.224596937584661</v>
+        <v>-1.851448066846852</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4685065756671321</v>
+        <v>-0.3154176132391732</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.414370447591247</v>
       </c>
       <c r="E83" t="n">
-        <v>0.467543395847253</v>
+        <v>0.7475061572309051</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.164330532536222</v>
+        <v>-1.775604408716508</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4458378690076836</v>
+        <v>-0.2740559108718206</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3395855510518664</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8545203820540581</v>
+        <v>1.028820923146739</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.112185644993463</v>
+        <v>-1.736857652479973</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4054062172742399</v>
+        <v>-0.2243923750595612</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2657829687593828</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9737595895423897</v>
+        <v>1.221215840230051</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.910940646407108</v>
+        <v>-1.687224777677623</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3886492453348808</v>
+        <v>-0.1949344447773873</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1953676689680319</v>
       </c>
       <c r="E86" t="n">
-        <v>1.288818986935305</v>
+        <v>1.451510685657171</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.948864665544416</v>
+        <v>-1.61729431431546</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2888053166861803</v>
+        <v>-0.1332955945234948</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1305872822511287</v>
       </c>
       <c r="E87" t="n">
-        <v>1.519702231743061</v>
+        <v>1.663858619950841</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.828921714876267</v>
+        <v>-1.552091486671659</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2435248452428288</v>
+        <v>-0.06711161456260348</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07364469363199652</v>
       </c>
       <c r="E88" t="n">
-        <v>1.695941716700469</v>
+        <v>1.823625842346616</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.631214412814183</v>
+        <v>-1.446154777339597</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2246274428021975</v>
+        <v>-0.05843308871024216</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02722710893527511</v>
       </c>
       <c r="E89" t="n">
-        <v>1.939693825381494</v>
+        <v>1.954925047065853</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.562473888646111</v>
+        <v>-1.338896724485262</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1034098701506846</v>
+        <v>0.01536942218901074</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.006607277982534786</v>
       </c>
       <c r="E90" t="n">
-        <v>2.113731557817811</v>
+        <v>2.069794330618095</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.344027333476715</v>
+        <v>-1.162517074911128</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06867386601987578</v>
+        <v>0.06199605797218004</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02661840509447581</v>
       </c>
       <c r="E91" t="n">
-        <v>2.177250950012794</v>
+        <v>2.104873446050268</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.136544279421953</v>
+        <v>-0.9914242594741735</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0313813176818858</v>
+        <v>0.08133293488817485</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03126893842142649</v>
       </c>
       <c r="E92" t="n">
-        <v>2.159581448016617</v>
+        <v>2.081449894527819</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.956314483032092</v>
+        <v>-0.8151803943724936</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02965116069415899</v>
+        <v>0.09624148594444357</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02061964578435876</v>
       </c>
       <c r="E93" t="n">
-        <v>2.214727464410238</v>
+        <v>2.082362424584637</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.714826908940066</v>
+        <v>-0.6157407452505471</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0254228614228874</v>
+        <v>0.07824785327208476</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.003916542689990633</v>
       </c>
       <c r="E94" t="n">
-        <v>2.180229448118248</v>
+        <v>2.032979218005833</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.6037099489814594</v>
+        <v>-0.4554435253977719</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06897463592660297</v>
+        <v>0.06948902477472348</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03927677196091459</v>
       </c>
       <c r="E95" t="n">
-        <v>2.122837877760809</v>
+        <v>1.955652151015126</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3977234442198783</v>
+        <v>-0.2754546369429112</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0493924709313355</v>
+        <v>0.0422343070617308</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0813599232379528</v>
       </c>
       <c r="E96" t="n">
-        <v>1.9867000736683</v>
+        <v>1.827010233821343</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2289024636123782</v>
+        <v>-0.1618263942679417</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0123160097108</v>
+        <v>-0.003932413572802257</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1247324209296271</v>
       </c>
       <c r="E97" t="n">
-        <v>1.866338089198059</v>
+        <v>1.700821197420285</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.09892314236732221</v>
+        <v>-0.07808533601387325</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09299534711823289</v>
+        <v>-0.01983087723470708</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.164947000139322</v>
       </c>
       <c r="E98" t="n">
-        <v>1.735656484821276</v>
+        <v>1.556950978638324</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0296282518448251</v>
+        <v>-0.01343732664461789</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06989884636814818</v>
+        <v>-0.04211559124624655</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.198749260981834</v>
       </c>
       <c r="E99" t="n">
-        <v>1.526298729017787</v>
+        <v>1.395925194788185</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08270684014171993</v>
+        <v>0.02994946242482501</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1500613267513994</v>
+        <v>-0.06962727742323917</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2244223905252733</v>
       </c>
       <c r="E100" t="n">
-        <v>1.407758884565</v>
+        <v>1.26440406275913</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2045901947226872</v>
+        <v>0.06896632755817816</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1963025098385688</v>
+        <v>-0.09214997927359675</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2417425793523536</v>
       </c>
       <c r="E101" t="n">
-        <v>1.260600637482313</v>
+        <v>1.100793993788083</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2211894814682282</v>
+        <v>0.07870776842072101</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06475509694387684</v>
+        <v>-0.07066975176014798</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2536252925408563</v>
       </c>
       <c r="E102" t="n">
-        <v>1.147035176875252</v>
+        <v>0.9888010049749312</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1973249954223255</v>
+        <v>0.07591615647090358</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1847637497761173</v>
+        <v>-0.1085141982765015</v>
       </c>
     </row>
   </sheetData>
